--- a/src/main/resources/TestData/ExportExcel.xlsx
+++ b/src/main/resources/TestData/ExportExcel.xlsx
@@ -890,8 +890,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.8724489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,17 +1327,16 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/TestData/ExportExcel.xlsx
+++ b/src/main/resources/TestData/ExportExcel.xlsx
@@ -10,6 +10,8 @@
   <sheets>
     <sheet name="TC_01" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Leave_Balance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Test_Des" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="288">
   <si>
     <t xml:space="preserve">Leave_Description</t>
   </si>
@@ -767,6 +769,618 @@
   </si>
   <si>
     <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Date Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-29</t>
   </si>
 </sst>
 </file>
@@ -890,7 +1504,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,19 +1939,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,6 +1970,5347 @@
       </c>
       <c r="E1" s="3" t="s">
         <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E310"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B237" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B242" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B243" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B245" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B246" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C252" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C254" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C256" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C257" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C259" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C260" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C261" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C262" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C263" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C264" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C265" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C279" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C280" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C281" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C282" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C283" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C284" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C285" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C286" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C287" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C288" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C289" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C290" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C297" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C298" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C299" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C300" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C301" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C302" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C308" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C309" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/ExportExcel.xlsx
+++ b/src/main/resources/TestData/ExportExcel.xlsx
@@ -1504,8 +1504,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,17 +1942,18 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,8 +2000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,12 +2035,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/TestData/ExportExcel.xlsx
+++ b/src/main/resources/TestData/ExportExcel.xlsx
@@ -1504,8 +1504,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,18 +1942,18 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.7908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,7 +2000,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,12 +2036,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/TestData/ExportExcel.xlsx
+++ b/src/main/resources/TestData/ExportExcel.xlsx
@@ -1504,8 +1504,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,18 +1942,17 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,8 +1999,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,12 +2035,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/TestData/ExportExcel.xlsx
+++ b/src/main/resources/TestData/ExportExcel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6681" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8517" uniqueCount="1564">
   <si>
     <t xml:space="preserve">Leave_Description</t>
   </si>
@@ -4362,6 +4362,1165 @@
   </si>
   <si>
     <t>2018-03-23T18:51:40.660</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: No</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:28.746</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:30.075</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:31.338</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:32.239</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:33.622</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:34.858</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:36.180</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:37.469</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:38.808</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:40.036</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:41.359</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:57:42.685</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: No</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:24.205</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:25.091</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:26.223</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:27.499</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:28.932</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:30.106</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:31.408</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:32.709</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:34.024</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:35.333</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:36.907</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:58:37.926</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: No</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:19.619</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:20.642</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:22.075</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:23.376</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:24.845</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:25.918</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:27.209</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:28.557</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:29.728</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:31.073</t>
+  </si>
+  <si>
+    <t>2018-03-23T20:59:32.312</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:23.559</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:24.442</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:25.504</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:26.885</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:28.295</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:29.386</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:30.723</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:31.961</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:33.358</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:34.642</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:35.850</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:00:37.235</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: No</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:18.770</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:19.569</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:20.777</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:22.184</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:23.434</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:24.666</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:26.026</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:27.353</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:28.628</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:29.876</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:31.168</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:01:32.482</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: No</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:15.328</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:16.488</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:17.624</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:18.482</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:19.723</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:21.032</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:22.305</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:23.633</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:25.033</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:26.224</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:27.608</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:02:28.822</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:11.595</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:12.759</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:13.881</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:14.934</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:16.350</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:17.535</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:18.764</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:20.031</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:21.424</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:22.792</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:23.970</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:03:25.320</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:07.380</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:08.525</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:09.596</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:10.644</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:11.928</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:13.207</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:14.527</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:15.808</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:17.113</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:18.433</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:19.736</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:04:21.020</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:04.689</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:05.824</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:06.832</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:07.998</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:09.239</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:10.516</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:11.812</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:13.124</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:14.458</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:15.719</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:16.963</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:18.302</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:55.702</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:56.505</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:57.723</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:05:58.907</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:00.172</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:01.496</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:02.851</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:04.050</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:05.351</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:06.624</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:07.936</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:09.515</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:51.067</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:51.960</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:53.082</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:54.420</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:55.678</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:56.964</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:58.208</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:06:59.586</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:07:00.794</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:07:02.115</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:07:03.503</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:07:04.694</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:04.842</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:05.684</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:06.913</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:08.223</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:09.474</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:10.764</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:12.091</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:13.379</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:14.672</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:15.928</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:17.342</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:08:18.579</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:17.973</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:18.904</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:20.006</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:21.415</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:22.673</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:23.994</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:25.244</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:26.569</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:27.878</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:29.077</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:30.573</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:09:31.707</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:38.834</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:39.704</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:40.719</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:42.036</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:43.317</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:44.595</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:45.875</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:47.265</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:48.509</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:49.834</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:51.083</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:10:52.392</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:11:52.489</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:11:53.389</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:11:54.571</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:11:55.895</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:11:57.258</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:11:58.575</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:11:59.754</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:12:01.004</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:12:02.298</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:12:03.572</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:12:04.901</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:12:06.215</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:04.854</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:05.737</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:06.825</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:08.075</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:09.551</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:10.671</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:11.969</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:13.245</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:14.657</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:15.851</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:17.146</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:13:18.607</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:18.360</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:19.229</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:20.430</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:21.692</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:22.995</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:24.276</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:25.805</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:27.048</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:28.418</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:29.649</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:30.936</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:14:32.225</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:31.175</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:31.979</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:33.120</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:34.464</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:36.139</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:37.012</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:38.299</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:39.588</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:40.931</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:42.250</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:43.577</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:15:44.783</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:43.887</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:45.056</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:46.255</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:47.376</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:48.550</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:49.803</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:51.058</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:52.362</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:53.675</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:54.943</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:56.193</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:16:57.732</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:17:57.838</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:17:59.003</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:17:59.936</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:01.203</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:02.433</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:03.767</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:05.104</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:06.338</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:07.734</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:08.900</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:10.453</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:18:11.595</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:12.685</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:13.538</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:14.592</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:15.877</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:17.299</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:18.491</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:19.812</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:21.092</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:22.349</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:23.654</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:24.981</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:19:26.353</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:30.534</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:31.499</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:32.423</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:33.776</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:35.036</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:36.383</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:37.668</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:38.950</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:40.218</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:41.528</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:42.791</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:20:44.084</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:42.184</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:43.143</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:44.145</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:45.388</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:46.741</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:47.983</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:49.272</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:50.567</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:51.889</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:53.139</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:54.638</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:21:55.710</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:22:54.532</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:22:55.504</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:22:56.469</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:22:57.918</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:22:59.136</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:23:00.450</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:23:01.672</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:23:03.049</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:23:04.944</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:23:06.407</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:23:07.507</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:23:08.873</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:09.560</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:10.914</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:11.824</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:12.924</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:14.263</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:15.523</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:16.827</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:18.062</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:19.394</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:20.750</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:21.964</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:24:23.428</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:25:24.147</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:25:25.005</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:25:26.216</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:25:27.526</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:25:28.917</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:25:30.180</t>
+  </si>
+  <si>
+    <t>2018-03-23T21:25:31.445</t>
   </si>
 </sst>
 </file>
@@ -4919,7 +6078,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G841"/>
+  <dimension ref="A1:G1147"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
@@ -21754,6 +22913,6126 @@
       </c>
       <c r="F841" t="s">
         <v>1226</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B842" t="s">
+        <v>289</v>
+      </c>
+      <c r="C842" t="s">
+        <v>290</v>
+      </c>
+      <c r="D842" t="s">
+        <v>290</v>
+      </c>
+      <c r="E842" t="s">
+        <v>291</v>
+      </c>
+      <c r="F842" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B843" t="s">
+        <v>293</v>
+      </c>
+      <c r="C843" t="s">
+        <v>290</v>
+      </c>
+      <c r="D843" t="s">
+        <v>290</v>
+      </c>
+      <c r="E843" t="s">
+        <v>291</v>
+      </c>
+      <c r="F843" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B844" t="s">
+        <v>295</v>
+      </c>
+      <c r="C844" t="s">
+        <v>290</v>
+      </c>
+      <c r="D844" t="s">
+        <v>290</v>
+      </c>
+      <c r="E844" t="s">
+        <v>291</v>
+      </c>
+      <c r="F844" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B845" t="s">
+        <v>297</v>
+      </c>
+      <c r="C845" t="s">
+        <v>290</v>
+      </c>
+      <c r="D845" t="s">
+        <v>290</v>
+      </c>
+      <c r="E845" t="s">
+        <v>291</v>
+      </c>
+      <c r="F845" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B846" t="s">
+        <v>299</v>
+      </c>
+      <c r="C846" t="s">
+        <v>290</v>
+      </c>
+      <c r="D846" t="s">
+        <v>290</v>
+      </c>
+      <c r="E846" t="s">
+        <v>291</v>
+      </c>
+      <c r="F846" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B847" t="s">
+        <v>301</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E847" t="s">
+        <v>291</v>
+      </c>
+      <c r="F847" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B848" t="s">
+        <v>303</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E848" t="s">
+        <v>291</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B849" t="s">
+        <v>305</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E849" t="s">
+        <v>291</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B850" t="s">
+        <v>307</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E850" t="s">
+        <v>291</v>
+      </c>
+      <c r="F850" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B851" t="s">
+        <v>309</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E851" t="s">
+        <v>291</v>
+      </c>
+      <c r="F851" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B852" t="s">
+        <v>311</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E852" t="s">
+        <v>291</v>
+      </c>
+      <c r="F852" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B853" t="s">
+        <v>313</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E853" t="s">
+        <v>291</v>
+      </c>
+      <c r="F853" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B854" t="s">
+        <v>289</v>
+      </c>
+      <c r="C854" t="s">
+        <v>290</v>
+      </c>
+      <c r="D854" t="s">
+        <v>290</v>
+      </c>
+      <c r="E854" t="s">
+        <v>291</v>
+      </c>
+      <c r="F854" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B855" t="s">
+        <v>293</v>
+      </c>
+      <c r="C855" t="s">
+        <v>290</v>
+      </c>
+      <c r="D855" t="s">
+        <v>290</v>
+      </c>
+      <c r="E855" t="s">
+        <v>291</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B856" t="s">
+        <v>295</v>
+      </c>
+      <c r="C856" t="s">
+        <v>290</v>
+      </c>
+      <c r="D856" t="s">
+        <v>290</v>
+      </c>
+      <c r="E856" t="s">
+        <v>291</v>
+      </c>
+      <c r="F856" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B857" t="s">
+        <v>297</v>
+      </c>
+      <c r="C857" t="s">
+        <v>290</v>
+      </c>
+      <c r="D857" t="s">
+        <v>290</v>
+      </c>
+      <c r="E857" t="s">
+        <v>291</v>
+      </c>
+      <c r="F857" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B858" t="s">
+        <v>299</v>
+      </c>
+      <c r="C858" t="s">
+        <v>290</v>
+      </c>
+      <c r="D858" t="s">
+        <v>290</v>
+      </c>
+      <c r="E858" t="s">
+        <v>291</v>
+      </c>
+      <c r="F858" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B859" t="s">
+        <v>301</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E859" t="s">
+        <v>291</v>
+      </c>
+      <c r="F859" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B860" t="s">
+        <v>303</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E860" t="s">
+        <v>377</v>
+      </c>
+      <c r="F860" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B861" t="s">
+        <v>305</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E861" t="s">
+        <v>291</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B862" t="s">
+        <v>307</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E862" t="s">
+        <v>377</v>
+      </c>
+      <c r="F862" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B863" t="s">
+        <v>309</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E863" t="s">
+        <v>377</v>
+      </c>
+      <c r="F863" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B864" t="s">
+        <v>311</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E864" t="s">
+        <v>291</v>
+      </c>
+      <c r="F864" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B865" t="s">
+        <v>313</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E865" t="s">
+        <v>377</v>
+      </c>
+      <c r="F865" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B866" t="s">
+        <v>289</v>
+      </c>
+      <c r="C866" t="s">
+        <v>290</v>
+      </c>
+      <c r="D866" t="s">
+        <v>290</v>
+      </c>
+      <c r="E866" t="s">
+        <v>291</v>
+      </c>
+      <c r="F866" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B867" t="s">
+        <v>293</v>
+      </c>
+      <c r="C867" t="s">
+        <v>290</v>
+      </c>
+      <c r="D867" t="s">
+        <v>290</v>
+      </c>
+      <c r="E867" t="s">
+        <v>291</v>
+      </c>
+      <c r="F867" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B868" t="s">
+        <v>295</v>
+      </c>
+      <c r="C868" t="s">
+        <v>290</v>
+      </c>
+      <c r="D868" t="s">
+        <v>290</v>
+      </c>
+      <c r="E868" t="s">
+        <v>291</v>
+      </c>
+      <c r="F868" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B869" t="s">
+        <v>297</v>
+      </c>
+      <c r="C869" t="s">
+        <v>290</v>
+      </c>
+      <c r="D869" t="s">
+        <v>290</v>
+      </c>
+      <c r="E869" t="s">
+        <v>291</v>
+      </c>
+      <c r="F869" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B870" t="s">
+        <v>299</v>
+      </c>
+      <c r="C870" t="s">
+        <v>290</v>
+      </c>
+      <c r="D870" t="s">
+        <v>290</v>
+      </c>
+      <c r="E870" t="s">
+        <v>291</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B871" t="s">
+        <v>301</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E871" t="s">
+        <v>291</v>
+      </c>
+      <c r="F871" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B872" t="s">
+        <v>303</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E872" t="s">
+        <v>377</v>
+      </c>
+      <c r="F872" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B873" t="s">
+        <v>305</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E873" t="s">
+        <v>291</v>
+      </c>
+      <c r="F873" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B874" t="s">
+        <v>307</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E874" t="s">
+        <v>291</v>
+      </c>
+      <c r="F874" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B875" t="s">
+        <v>309</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E875" t="s">
+        <v>291</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B876" t="s">
+        <v>311</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E876" t="s">
+        <v>291</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B877" t="s">
+        <v>289</v>
+      </c>
+      <c r="C877" t="s">
+        <v>290</v>
+      </c>
+      <c r="D877" t="s">
+        <v>290</v>
+      </c>
+      <c r="E877" t="s">
+        <v>291</v>
+      </c>
+      <c r="F877" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B878" t="s">
+        <v>293</v>
+      </c>
+      <c r="C878" t="s">
+        <v>290</v>
+      </c>
+      <c r="D878" t="s">
+        <v>290</v>
+      </c>
+      <c r="E878" t="s">
+        <v>291</v>
+      </c>
+      <c r="F878" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B879" t="s">
+        <v>295</v>
+      </c>
+      <c r="C879" t="s">
+        <v>290</v>
+      </c>
+      <c r="D879" t="s">
+        <v>290</v>
+      </c>
+      <c r="E879" t="s">
+        <v>291</v>
+      </c>
+      <c r="F879" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B880" t="s">
+        <v>297</v>
+      </c>
+      <c r="C880" t="s">
+        <v>290</v>
+      </c>
+      <c r="D880" t="s">
+        <v>290</v>
+      </c>
+      <c r="E880" t="s">
+        <v>291</v>
+      </c>
+      <c r="F880" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B881" t="s">
+        <v>299</v>
+      </c>
+      <c r="C881" t="s">
+        <v>290</v>
+      </c>
+      <c r="D881" t="s">
+        <v>290</v>
+      </c>
+      <c r="E881" t="s">
+        <v>291</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B882" t="s">
+        <v>301</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E882" t="s">
+        <v>291</v>
+      </c>
+      <c r="F882" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B883" t="s">
+        <v>303</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E883" t="s">
+        <v>291</v>
+      </c>
+      <c r="F883" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B884" t="s">
+        <v>305</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E884" t="s">
+        <v>291</v>
+      </c>
+      <c r="F884" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B885" t="s">
+        <v>307</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E885" t="s">
+        <v>291</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B886" t="s">
+        <v>309</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E886" t="s">
+        <v>291</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B887" t="s">
+        <v>311</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E887" t="s">
+        <v>291</v>
+      </c>
+      <c r="F887" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B888" t="s">
+        <v>313</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E888" t="s">
+        <v>291</v>
+      </c>
+      <c r="F888" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B889" t="s">
+        <v>289</v>
+      </c>
+      <c r="C889" t="s">
+        <v>290</v>
+      </c>
+      <c r="D889" t="s">
+        <v>290</v>
+      </c>
+      <c r="E889" t="s">
+        <v>291</v>
+      </c>
+      <c r="F889" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B890" t="s">
+        <v>293</v>
+      </c>
+      <c r="C890" t="s">
+        <v>290</v>
+      </c>
+      <c r="D890" t="s">
+        <v>290</v>
+      </c>
+      <c r="E890" t="s">
+        <v>291</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B891" t="s">
+        <v>295</v>
+      </c>
+      <c r="C891" t="s">
+        <v>290</v>
+      </c>
+      <c r="D891" t="s">
+        <v>290</v>
+      </c>
+      <c r="E891" t="s">
+        <v>291</v>
+      </c>
+      <c r="F891" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B892" t="s">
+        <v>297</v>
+      </c>
+      <c r="C892" t="s">
+        <v>290</v>
+      </c>
+      <c r="D892" t="s">
+        <v>290</v>
+      </c>
+      <c r="E892" t="s">
+        <v>291</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B893" t="s">
+        <v>299</v>
+      </c>
+      <c r="C893" t="s">
+        <v>290</v>
+      </c>
+      <c r="D893" t="s">
+        <v>290</v>
+      </c>
+      <c r="E893" t="s">
+        <v>291</v>
+      </c>
+      <c r="F893" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B894" t="s">
+        <v>301</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E894" t="s">
+        <v>291</v>
+      </c>
+      <c r="F894" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B895" t="s">
+        <v>303</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E895" t="s">
+        <v>291</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B896" t="s">
+        <v>305</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E896" t="s">
+        <v>291</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B897" t="s">
+        <v>307</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E897" t="s">
+        <v>291</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B898" t="s">
+        <v>309</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E898" t="s">
+        <v>291</v>
+      </c>
+      <c r="F898" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B899" t="s">
+        <v>311</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E899" t="s">
+        <v>291</v>
+      </c>
+      <c r="F899" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B900" t="s">
+        <v>313</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E900" t="s">
+        <v>291</v>
+      </c>
+      <c r="F900" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B901" t="s">
+        <v>289</v>
+      </c>
+      <c r="C901" t="s">
+        <v>290</v>
+      </c>
+      <c r="D901" t="s">
+        <v>290</v>
+      </c>
+      <c r="E901" t="s">
+        <v>291</v>
+      </c>
+      <c r="F901" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B902" t="s">
+        <v>293</v>
+      </c>
+      <c r="C902" t="s">
+        <v>290</v>
+      </c>
+      <c r="D902" t="s">
+        <v>290</v>
+      </c>
+      <c r="E902" t="s">
+        <v>291</v>
+      </c>
+      <c r="F902" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B903" t="s">
+        <v>295</v>
+      </c>
+      <c r="C903" t="s">
+        <v>290</v>
+      </c>
+      <c r="D903" t="s">
+        <v>290</v>
+      </c>
+      <c r="E903" t="s">
+        <v>291</v>
+      </c>
+      <c r="F903" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B904" t="s">
+        <v>297</v>
+      </c>
+      <c r="C904" t="s">
+        <v>290</v>
+      </c>
+      <c r="D904" t="s">
+        <v>290</v>
+      </c>
+      <c r="E904" t="s">
+        <v>291</v>
+      </c>
+      <c r="F904" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B905" t="s">
+        <v>299</v>
+      </c>
+      <c r="C905" t="s">
+        <v>290</v>
+      </c>
+      <c r="D905" t="s">
+        <v>290</v>
+      </c>
+      <c r="E905" t="s">
+        <v>291</v>
+      </c>
+      <c r="F905" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B906" t="s">
+        <v>301</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E906" t="s">
+        <v>291</v>
+      </c>
+      <c r="F906" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B907" t="s">
+        <v>303</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E907" t="s">
+        <v>291</v>
+      </c>
+      <c r="F907" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B908" t="s">
+        <v>305</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E908" t="s">
+        <v>291</v>
+      </c>
+      <c r="F908" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B909" t="s">
+        <v>307</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E909" t="s">
+        <v>291</v>
+      </c>
+      <c r="F909" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B910" t="s">
+        <v>309</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E910" t="s">
+        <v>291</v>
+      </c>
+      <c r="F910" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B911" t="s">
+        <v>311</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E911" t="s">
+        <v>291</v>
+      </c>
+      <c r="F911" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B912" t="s">
+        <v>313</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E912" t="s">
+        <v>291</v>
+      </c>
+      <c r="F912" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B913" t="s">
+        <v>289</v>
+      </c>
+      <c r="C913" t="s">
+        <v>290</v>
+      </c>
+      <c r="D913" t="s">
+        <v>290</v>
+      </c>
+      <c r="E913" t="s">
+        <v>291</v>
+      </c>
+      <c r="F913" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B914" t="s">
+        <v>293</v>
+      </c>
+      <c r="C914" t="s">
+        <v>290</v>
+      </c>
+      <c r="D914" t="s">
+        <v>290</v>
+      </c>
+      <c r="E914" t="s">
+        <v>291</v>
+      </c>
+      <c r="F914" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B915" t="s">
+        <v>295</v>
+      </c>
+      <c r="C915" t="s">
+        <v>290</v>
+      </c>
+      <c r="D915" t="s">
+        <v>290</v>
+      </c>
+      <c r="E915" t="s">
+        <v>291</v>
+      </c>
+      <c r="F915" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B916" t="s">
+        <v>297</v>
+      </c>
+      <c r="C916" t="s">
+        <v>290</v>
+      </c>
+      <c r="D916" t="s">
+        <v>290</v>
+      </c>
+      <c r="E916" t="s">
+        <v>291</v>
+      </c>
+      <c r="F916" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B917" t="s">
+        <v>299</v>
+      </c>
+      <c r="C917" t="s">
+        <v>290</v>
+      </c>
+      <c r="D917" t="s">
+        <v>290</v>
+      </c>
+      <c r="E917" t="s">
+        <v>291</v>
+      </c>
+      <c r="F917" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B918" t="s">
+        <v>301</v>
+      </c>
+      <c r="C918" t="s">
+        <v>597</v>
+      </c>
+      <c r="D918" t="s">
+        <v>597</v>
+      </c>
+      <c r="E918" t="s">
+        <v>291</v>
+      </c>
+      <c r="F918" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B919" t="s">
+        <v>303</v>
+      </c>
+      <c r="C919" t="s">
+        <v>597</v>
+      </c>
+      <c r="D919" t="s">
+        <v>597</v>
+      </c>
+      <c r="E919" t="s">
+        <v>291</v>
+      </c>
+      <c r="F919" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B920" t="s">
+        <v>305</v>
+      </c>
+      <c r="C920" t="s">
+        <v>597</v>
+      </c>
+      <c r="D920" t="s">
+        <v>597</v>
+      </c>
+      <c r="E920" t="s">
+        <v>291</v>
+      </c>
+      <c r="F920" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B921" t="s">
+        <v>307</v>
+      </c>
+      <c r="C921" t="s">
+        <v>597</v>
+      </c>
+      <c r="D921" t="s">
+        <v>597</v>
+      </c>
+      <c r="E921" t="s">
+        <v>291</v>
+      </c>
+      <c r="F921" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B922" t="s">
+        <v>309</v>
+      </c>
+      <c r="C922" t="s">
+        <v>597</v>
+      </c>
+      <c r="D922" t="s">
+        <v>597</v>
+      </c>
+      <c r="E922" t="s">
+        <v>291</v>
+      </c>
+      <c r="F922" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B923" t="s">
+        <v>311</v>
+      </c>
+      <c r="C923" t="s">
+        <v>597</v>
+      </c>
+      <c r="D923" t="s">
+        <v>597</v>
+      </c>
+      <c r="E923" t="s">
+        <v>291</v>
+      </c>
+      <c r="F923" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B924" t="s">
+        <v>313</v>
+      </c>
+      <c r="C924" t="s">
+        <v>597</v>
+      </c>
+      <c r="D924" t="s">
+        <v>597</v>
+      </c>
+      <c r="E924" t="s">
+        <v>291</v>
+      </c>
+      <c r="F924" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B925" t="s">
+        <v>289</v>
+      </c>
+      <c r="C925" t="s">
+        <v>290</v>
+      </c>
+      <c r="D925" t="s">
+        <v>290</v>
+      </c>
+      <c r="E925" t="s">
+        <v>291</v>
+      </c>
+      <c r="F925" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B926" t="s">
+        <v>293</v>
+      </c>
+      <c r="C926" t="s">
+        <v>290</v>
+      </c>
+      <c r="D926" t="s">
+        <v>290</v>
+      </c>
+      <c r="E926" t="s">
+        <v>291</v>
+      </c>
+      <c r="F926" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B927" t="s">
+        <v>295</v>
+      </c>
+      <c r="C927" t="s">
+        <v>290</v>
+      </c>
+      <c r="D927" t="s">
+        <v>290</v>
+      </c>
+      <c r="E927" t="s">
+        <v>291</v>
+      </c>
+      <c r="F927" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B928" t="s">
+        <v>297</v>
+      </c>
+      <c r="C928" t="s">
+        <v>290</v>
+      </c>
+      <c r="D928" t="s">
+        <v>290</v>
+      </c>
+      <c r="E928" t="s">
+        <v>291</v>
+      </c>
+      <c r="F928" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B929" t="s">
+        <v>299</v>
+      </c>
+      <c r="C929" t="s">
+        <v>290</v>
+      </c>
+      <c r="D929" t="s">
+        <v>290</v>
+      </c>
+      <c r="E929" t="s">
+        <v>291</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B930" t="s">
+        <v>301</v>
+      </c>
+      <c r="C930" t="s">
+        <v>592</v>
+      </c>
+      <c r="D930" t="s">
+        <v>592</v>
+      </c>
+      <c r="E930" t="s">
+        <v>291</v>
+      </c>
+      <c r="F930" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B931" t="s">
+        <v>303</v>
+      </c>
+      <c r="C931" t="s">
+        <v>592</v>
+      </c>
+      <c r="D931" t="s">
+        <v>592</v>
+      </c>
+      <c r="E931" t="s">
+        <v>291</v>
+      </c>
+      <c r="F931" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B932" t="s">
+        <v>305</v>
+      </c>
+      <c r="C932" t="s">
+        <v>592</v>
+      </c>
+      <c r="D932" t="s">
+        <v>592</v>
+      </c>
+      <c r="E932" t="s">
+        <v>291</v>
+      </c>
+      <c r="F932" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B933" t="s">
+        <v>307</v>
+      </c>
+      <c r="C933" t="s">
+        <v>592</v>
+      </c>
+      <c r="D933" t="s">
+        <v>592</v>
+      </c>
+      <c r="E933" t="s">
+        <v>291</v>
+      </c>
+      <c r="F933" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B934" t="s">
+        <v>309</v>
+      </c>
+      <c r="C934" t="s">
+        <v>592</v>
+      </c>
+      <c r="D934" t="s">
+        <v>592</v>
+      </c>
+      <c r="E934" t="s">
+        <v>291</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B935" t="s">
+        <v>311</v>
+      </c>
+      <c r="C935" t="s">
+        <v>592</v>
+      </c>
+      <c r="D935" t="s">
+        <v>592</v>
+      </c>
+      <c r="E935" t="s">
+        <v>291</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B936" t="s">
+        <v>313</v>
+      </c>
+      <c r="C936" t="s">
+        <v>592</v>
+      </c>
+      <c r="D936" t="s">
+        <v>592</v>
+      </c>
+      <c r="E936" t="s">
+        <v>291</v>
+      </c>
+      <c r="F936" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B937" t="s">
+        <v>289</v>
+      </c>
+      <c r="C937" t="s">
+        <v>290</v>
+      </c>
+      <c r="D937" t="s">
+        <v>290</v>
+      </c>
+      <c r="E937" t="s">
+        <v>291</v>
+      </c>
+      <c r="F937" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B938" t="s">
+        <v>293</v>
+      </c>
+      <c r="C938" t="s">
+        <v>290</v>
+      </c>
+      <c r="D938" t="s">
+        <v>290</v>
+      </c>
+      <c r="E938" t="s">
+        <v>291</v>
+      </c>
+      <c r="F938" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B939" t="s">
+        <v>295</v>
+      </c>
+      <c r="C939" t="s">
+        <v>290</v>
+      </c>
+      <c r="D939" t="s">
+        <v>290</v>
+      </c>
+      <c r="E939" t="s">
+        <v>291</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B940" t="s">
+        <v>297</v>
+      </c>
+      <c r="C940" t="s">
+        <v>290</v>
+      </c>
+      <c r="D940" t="s">
+        <v>290</v>
+      </c>
+      <c r="E940" t="s">
+        <v>291</v>
+      </c>
+      <c r="F940" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B941" t="s">
+        <v>299</v>
+      </c>
+      <c r="C941" t="s">
+        <v>290</v>
+      </c>
+      <c r="D941" t="s">
+        <v>290</v>
+      </c>
+      <c r="E941" t="s">
+        <v>291</v>
+      </c>
+      <c r="F941" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B942" t="s">
+        <v>301</v>
+      </c>
+      <c r="C942" t="s">
+        <v>597</v>
+      </c>
+      <c r="D942" t="s">
+        <v>597</v>
+      </c>
+      <c r="E942" t="s">
+        <v>291</v>
+      </c>
+      <c r="F942" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B943" t="s">
+        <v>303</v>
+      </c>
+      <c r="C943" t="s">
+        <v>597</v>
+      </c>
+      <c r="D943" t="s">
+        <v>597</v>
+      </c>
+      <c r="E943" t="s">
+        <v>291</v>
+      </c>
+      <c r="F943" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B944" t="s">
+        <v>305</v>
+      </c>
+      <c r="C944" t="s">
+        <v>597</v>
+      </c>
+      <c r="D944" t="s">
+        <v>597</v>
+      </c>
+      <c r="E944" t="s">
+        <v>291</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B945" t="s">
+        <v>307</v>
+      </c>
+      <c r="C945" t="s">
+        <v>597</v>
+      </c>
+      <c r="D945" t="s">
+        <v>597</v>
+      </c>
+      <c r="E945" t="s">
+        <v>291</v>
+      </c>
+      <c r="F945" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B946" t="s">
+        <v>309</v>
+      </c>
+      <c r="C946" t="s">
+        <v>597</v>
+      </c>
+      <c r="D946" t="s">
+        <v>597</v>
+      </c>
+      <c r="E946" t="s">
+        <v>291</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B947" t="s">
+        <v>311</v>
+      </c>
+      <c r="C947" t="s">
+        <v>597</v>
+      </c>
+      <c r="D947" t="s">
+        <v>597</v>
+      </c>
+      <c r="E947" t="s">
+        <v>291</v>
+      </c>
+      <c r="F947" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B948" t="s">
+        <v>313</v>
+      </c>
+      <c r="C948" t="s">
+        <v>597</v>
+      </c>
+      <c r="D948" t="s">
+        <v>597</v>
+      </c>
+      <c r="E948" t="s">
+        <v>291</v>
+      </c>
+      <c r="F948" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B949" t="s">
+        <v>289</v>
+      </c>
+      <c r="C949" t="s">
+        <v>290</v>
+      </c>
+      <c r="D949" t="s">
+        <v>290</v>
+      </c>
+      <c r="E949" t="s">
+        <v>291</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B950" t="s">
+        <v>293</v>
+      </c>
+      <c r="C950" t="s">
+        <v>290</v>
+      </c>
+      <c r="D950" t="s">
+        <v>290</v>
+      </c>
+      <c r="E950" t="s">
+        <v>291</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B951" t="s">
+        <v>295</v>
+      </c>
+      <c r="C951" t="s">
+        <v>290</v>
+      </c>
+      <c r="D951" t="s">
+        <v>290</v>
+      </c>
+      <c r="E951" t="s">
+        <v>291</v>
+      </c>
+      <c r="F951" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B952" t="s">
+        <v>297</v>
+      </c>
+      <c r="C952" t="s">
+        <v>290</v>
+      </c>
+      <c r="D952" t="s">
+        <v>290</v>
+      </c>
+      <c r="E952" t="s">
+        <v>291</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B953" t="s">
+        <v>299</v>
+      </c>
+      <c r="C953" t="s">
+        <v>290</v>
+      </c>
+      <c r="D953" t="s">
+        <v>290</v>
+      </c>
+      <c r="E953" t="s">
+        <v>291</v>
+      </c>
+      <c r="F953" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B954" t="s">
+        <v>301</v>
+      </c>
+      <c r="C954" t="s">
+        <v>290</v>
+      </c>
+      <c r="D954" t="s">
+        <v>290</v>
+      </c>
+      <c r="E954" t="s">
+        <v>291</v>
+      </c>
+      <c r="F954" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B955" t="s">
+        <v>303</v>
+      </c>
+      <c r="C955" t="s">
+        <v>290</v>
+      </c>
+      <c r="D955" t="s">
+        <v>290</v>
+      </c>
+      <c r="E955" t="s">
+        <v>291</v>
+      </c>
+      <c r="F955" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B956" t="s">
+        <v>305</v>
+      </c>
+      <c r="C956" t="s">
+        <v>290</v>
+      </c>
+      <c r="D956" t="s">
+        <v>290</v>
+      </c>
+      <c r="E956" t="s">
+        <v>291</v>
+      </c>
+      <c r="F956" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B957" t="s">
+        <v>307</v>
+      </c>
+      <c r="C957" t="s">
+        <v>290</v>
+      </c>
+      <c r="D957" t="s">
+        <v>290</v>
+      </c>
+      <c r="E957" t="s">
+        <v>291</v>
+      </c>
+      <c r="F957" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B958" t="s">
+        <v>309</v>
+      </c>
+      <c r="C958" t="s">
+        <v>290</v>
+      </c>
+      <c r="D958" t="s">
+        <v>290</v>
+      </c>
+      <c r="E958" t="s">
+        <v>291</v>
+      </c>
+      <c r="F958" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B959" t="s">
+        <v>311</v>
+      </c>
+      <c r="C959" t="s">
+        <v>290</v>
+      </c>
+      <c r="D959" t="s">
+        <v>290</v>
+      </c>
+      <c r="E959" t="s">
+        <v>291</v>
+      </c>
+      <c r="F959" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B960" t="s">
+        <v>313</v>
+      </c>
+      <c r="C960" t="s">
+        <v>290</v>
+      </c>
+      <c r="D960" t="s">
+        <v>290</v>
+      </c>
+      <c r="E960" t="s">
+        <v>291</v>
+      </c>
+      <c r="F960" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B961" t="s">
+        <v>289</v>
+      </c>
+      <c r="C961" t="s">
+        <v>290</v>
+      </c>
+      <c r="D961" t="s">
+        <v>290</v>
+      </c>
+      <c r="E961" t="s">
+        <v>291</v>
+      </c>
+      <c r="F961" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B962" t="s">
+        <v>293</v>
+      </c>
+      <c r="C962" t="s">
+        <v>290</v>
+      </c>
+      <c r="D962" t="s">
+        <v>290</v>
+      </c>
+      <c r="E962" t="s">
+        <v>291</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B963" t="s">
+        <v>295</v>
+      </c>
+      <c r="C963" t="s">
+        <v>290</v>
+      </c>
+      <c r="D963" t="s">
+        <v>290</v>
+      </c>
+      <c r="E963" t="s">
+        <v>291</v>
+      </c>
+      <c r="F963" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B964" t="s">
+        <v>297</v>
+      </c>
+      <c r="C964" t="s">
+        <v>290</v>
+      </c>
+      <c r="D964" t="s">
+        <v>290</v>
+      </c>
+      <c r="E964" t="s">
+        <v>291</v>
+      </c>
+      <c r="F964" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B965" t="s">
+        <v>299</v>
+      </c>
+      <c r="C965" t="s">
+        <v>290</v>
+      </c>
+      <c r="D965" t="s">
+        <v>290</v>
+      </c>
+      <c r="E965" t="s">
+        <v>291</v>
+      </c>
+      <c r="F965" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B966" t="s">
+        <v>301</v>
+      </c>
+      <c r="C966" t="s">
+        <v>612</v>
+      </c>
+      <c r="D966" t="s">
+        <v>612</v>
+      </c>
+      <c r="E966" t="s">
+        <v>291</v>
+      </c>
+      <c r="F966" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B967" t="s">
+        <v>303</v>
+      </c>
+      <c r="C967" t="s">
+        <v>612</v>
+      </c>
+      <c r="D967" t="s">
+        <v>612</v>
+      </c>
+      <c r="E967" t="s">
+        <v>291</v>
+      </c>
+      <c r="F967" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B968" t="s">
+        <v>305</v>
+      </c>
+      <c r="C968" t="s">
+        <v>612</v>
+      </c>
+      <c r="D968" t="s">
+        <v>612</v>
+      </c>
+      <c r="E968" t="s">
+        <v>291</v>
+      </c>
+      <c r="F968" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B969" t="s">
+        <v>307</v>
+      </c>
+      <c r="C969" t="s">
+        <v>612</v>
+      </c>
+      <c r="D969" t="s">
+        <v>612</v>
+      </c>
+      <c r="E969" t="s">
+        <v>291</v>
+      </c>
+      <c r="F969" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B970" t="s">
+        <v>309</v>
+      </c>
+      <c r="C970" t="s">
+        <v>612</v>
+      </c>
+      <c r="D970" t="s">
+        <v>612</v>
+      </c>
+      <c r="E970" t="s">
+        <v>291</v>
+      </c>
+      <c r="F970" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B971" t="s">
+        <v>311</v>
+      </c>
+      <c r="C971" t="s">
+        <v>612</v>
+      </c>
+      <c r="D971" t="s">
+        <v>612</v>
+      </c>
+      <c r="E971" t="s">
+        <v>291</v>
+      </c>
+      <c r="F971" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B972" t="s">
+        <v>313</v>
+      </c>
+      <c r="C972" t="s">
+        <v>612</v>
+      </c>
+      <c r="D972" t="s">
+        <v>612</v>
+      </c>
+      <c r="E972" t="s">
+        <v>291</v>
+      </c>
+      <c r="F972" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B973" t="s">
+        <v>289</v>
+      </c>
+      <c r="C973" t="s">
+        <v>290</v>
+      </c>
+      <c r="D973" t="s">
+        <v>290</v>
+      </c>
+      <c r="E973" t="s">
+        <v>291</v>
+      </c>
+      <c r="F973" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B974" t="s">
+        <v>293</v>
+      </c>
+      <c r="C974" t="s">
+        <v>290</v>
+      </c>
+      <c r="D974" t="s">
+        <v>290</v>
+      </c>
+      <c r="E974" t="s">
+        <v>291</v>
+      </c>
+      <c r="F974" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B975" t="s">
+        <v>295</v>
+      </c>
+      <c r="C975" t="s">
+        <v>290</v>
+      </c>
+      <c r="D975" t="s">
+        <v>290</v>
+      </c>
+      <c r="E975" t="s">
+        <v>291</v>
+      </c>
+      <c r="F975" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B976" t="s">
+        <v>297</v>
+      </c>
+      <c r="C976" t="s">
+        <v>290</v>
+      </c>
+      <c r="D976" t="s">
+        <v>290</v>
+      </c>
+      <c r="E976" t="s">
+        <v>291</v>
+      </c>
+      <c r="F976" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B977" t="s">
+        <v>299</v>
+      </c>
+      <c r="C977" t="s">
+        <v>290</v>
+      </c>
+      <c r="D977" t="s">
+        <v>290</v>
+      </c>
+      <c r="E977" t="s">
+        <v>291</v>
+      </c>
+      <c r="F977" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B978" t="s">
+        <v>301</v>
+      </c>
+      <c r="C978" t="s">
+        <v>587</v>
+      </c>
+      <c r="D978" t="s">
+        <v>587</v>
+      </c>
+      <c r="E978" t="s">
+        <v>291</v>
+      </c>
+      <c r="F978" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B979" t="s">
+        <v>303</v>
+      </c>
+      <c r="C979" t="s">
+        <v>592</v>
+      </c>
+      <c r="D979" t="s">
+        <v>587</v>
+      </c>
+      <c r="E979" t="s">
+        <v>377</v>
+      </c>
+      <c r="F979" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B980" t="s">
+        <v>305</v>
+      </c>
+      <c r="C980" t="s">
+        <v>592</v>
+      </c>
+      <c r="D980" t="s">
+        <v>592</v>
+      </c>
+      <c r="E980" t="s">
+        <v>291</v>
+      </c>
+      <c r="F980" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B981" t="s">
+        <v>307</v>
+      </c>
+      <c r="C981" t="s">
+        <v>592</v>
+      </c>
+      <c r="D981" t="s">
+        <v>597</v>
+      </c>
+      <c r="E981" t="s">
+        <v>377</v>
+      </c>
+      <c r="F981" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B982" t="s">
+        <v>309</v>
+      </c>
+      <c r="C982" t="s">
+        <v>592</v>
+      </c>
+      <c r="D982" t="s">
+        <v>597</v>
+      </c>
+      <c r="E982" t="s">
+        <v>377</v>
+      </c>
+      <c r="F982" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B983" t="s">
+        <v>311</v>
+      </c>
+      <c r="C983" t="s">
+        <v>597</v>
+      </c>
+      <c r="D983" t="s">
+        <v>597</v>
+      </c>
+      <c r="E983" t="s">
+        <v>291</v>
+      </c>
+      <c r="F983" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B984" t="s">
+        <v>313</v>
+      </c>
+      <c r="C984" t="s">
+        <v>597</v>
+      </c>
+      <c r="D984" t="s">
+        <v>592</v>
+      </c>
+      <c r="E984" t="s">
+        <v>377</v>
+      </c>
+      <c r="F984" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B985" t="s">
+        <v>289</v>
+      </c>
+      <c r="C985" t="s">
+        <v>290</v>
+      </c>
+      <c r="D985" t="s">
+        <v>290</v>
+      </c>
+      <c r="E985" t="s">
+        <v>291</v>
+      </c>
+      <c r="F985" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B986" t="s">
+        <v>293</v>
+      </c>
+      <c r="C986" t="s">
+        <v>290</v>
+      </c>
+      <c r="D986" t="s">
+        <v>290</v>
+      </c>
+      <c r="E986" t="s">
+        <v>291</v>
+      </c>
+      <c r="F986" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B987" t="s">
+        <v>295</v>
+      </c>
+      <c r="C987" t="s">
+        <v>290</v>
+      </c>
+      <c r="D987" t="s">
+        <v>290</v>
+      </c>
+      <c r="E987" t="s">
+        <v>291</v>
+      </c>
+      <c r="F987" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B988" t="s">
+        <v>297</v>
+      </c>
+      <c r="C988" t="s">
+        <v>290</v>
+      </c>
+      <c r="D988" t="s">
+        <v>290</v>
+      </c>
+      <c r="E988" t="s">
+        <v>291</v>
+      </c>
+      <c r="F988" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B989" t="s">
+        <v>299</v>
+      </c>
+      <c r="C989" t="s">
+        <v>290</v>
+      </c>
+      <c r="D989" t="s">
+        <v>290</v>
+      </c>
+      <c r="E989" t="s">
+        <v>291</v>
+      </c>
+      <c r="F989" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B990" t="s">
+        <v>301</v>
+      </c>
+      <c r="C990" t="s">
+        <v>290</v>
+      </c>
+      <c r="D990" t="s">
+        <v>290</v>
+      </c>
+      <c r="E990" t="s">
+        <v>291</v>
+      </c>
+      <c r="F990" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B991" t="s">
+        <v>303</v>
+      </c>
+      <c r="C991" t="s">
+        <v>587</v>
+      </c>
+      <c r="D991" t="s">
+        <v>290</v>
+      </c>
+      <c r="E991" t="s">
+        <v>377</v>
+      </c>
+      <c r="F991" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B992" t="s">
+        <v>305</v>
+      </c>
+      <c r="C992" t="s">
+        <v>587</v>
+      </c>
+      <c r="D992" t="s">
+        <v>587</v>
+      </c>
+      <c r="E992" t="s">
+        <v>291</v>
+      </c>
+      <c r="F992" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B993" t="s">
+        <v>307</v>
+      </c>
+      <c r="C993" t="s">
+        <v>587</v>
+      </c>
+      <c r="D993" t="s">
+        <v>592</v>
+      </c>
+      <c r="E993" t="s">
+        <v>377</v>
+      </c>
+      <c r="F993" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B994" t="s">
+        <v>309</v>
+      </c>
+      <c r="C994" t="s">
+        <v>587</v>
+      </c>
+      <c r="D994" t="s">
+        <v>592</v>
+      </c>
+      <c r="E994" t="s">
+        <v>377</v>
+      </c>
+      <c r="F994" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B995" t="s">
+        <v>311</v>
+      </c>
+      <c r="C995" t="s">
+        <v>592</v>
+      </c>
+      <c r="D995" t="s">
+        <v>592</v>
+      </c>
+      <c r="E995" t="s">
+        <v>291</v>
+      </c>
+      <c r="F995" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B996" t="s">
+        <v>313</v>
+      </c>
+      <c r="C996" t="s">
+        <v>592</v>
+      </c>
+      <c r="D996" t="s">
+        <v>587</v>
+      </c>
+      <c r="E996" t="s">
+        <v>377</v>
+      </c>
+      <c r="F996" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B997" t="s">
+        <v>289</v>
+      </c>
+      <c r="C997" t="s">
+        <v>290</v>
+      </c>
+      <c r="D997" t="s">
+        <v>290</v>
+      </c>
+      <c r="E997" t="s">
+        <v>291</v>
+      </c>
+      <c r="F997" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B998" t="s">
+        <v>293</v>
+      </c>
+      <c r="C998" t="s">
+        <v>290</v>
+      </c>
+      <c r="D998" t="s">
+        <v>290</v>
+      </c>
+      <c r="E998" t="s">
+        <v>291</v>
+      </c>
+      <c r="F998" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B999" t="s">
+        <v>295</v>
+      </c>
+      <c r="C999" t="s">
+        <v>290</v>
+      </c>
+      <c r="D999" t="s">
+        <v>290</v>
+      </c>
+      <c r="E999" t="s">
+        <v>291</v>
+      </c>
+      <c r="F999" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>652</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>642</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>647</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>662</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>597</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>1563</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/ExportExcel.xlsx
+++ b/src/main/resources/TestData/ExportExcel.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leave_Balance" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Leave_Sce_Des" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Test_Des" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Effective Date" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Test_Des" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="211">
   <si>
     <t xml:space="preserve">Leave Description</t>
   </si>
@@ -47,6 +48,18 @@
   </si>
   <si>
     <t xml:space="preserve">CurrentTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Type Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Type Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Time</t>
   </si>
   <si>
     <t xml:space="preserve">Test Description</t>
@@ -773,18 +786,19 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,9 +845,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,24 +873,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -896,6 +926,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E310"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -904,12 +970,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04591836734694"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,5255 +996,5255 @@
     </row>
     <row r="2" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="E52" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="E83" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="E98" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B113" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D113" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="E113" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B128" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="E128" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B180" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C180" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C180" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="D180" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B211" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C211" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C211" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="D211" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B226" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C226" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C226" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="D226" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B241" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C241" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="D241" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B254" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B254" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="C254" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B256" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C256" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C256" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="D256" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B267" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C267" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C267" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="D267" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B282" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C282" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C282" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="D282" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B297" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C297" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C297" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="D297" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E305" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E310" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
